--- a/target/test-classes/testdata/MyUplinkTestData.xlsx
+++ b/target/test-classes/testdata/MyUplinkTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF6C77D3-2E5C-4137-8F98-49E2FCF1FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB4F0C4-D880-44C2-B158-2BA18BCB264F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ForgotPassword" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -105,10 +105,16 @@
     <t>Verify scenario with blank username and blank Password</t>
   </si>
   <si>
-    <t>Verify scenario with correct username and wrong Password</t>
-  </si>
-  <si>
     <t>Verify scenario with correct username and correct Password</t>
+  </si>
+  <si>
+    <t>rishimishra2999@gmail.com</t>
+  </si>
+  <si>
+    <t>Verify scenario with wrong email or password</t>
+  </si>
+  <si>
+    <t>12345678A</t>
   </si>
   <si>
     <t>Username</t>
@@ -341,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -354,17 +360,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
@@ -375,6 +370,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -851,10 +864,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9E07B62-DD39-4CC8-99FB-608648241D76}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="B4:C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,62 +877,63 @@
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="137.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:3" ht="30.75">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="121.5">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:3" ht="30.75">
+      <c r="A3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="1:3" ht="121.5">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="30.75">
+      <c r="A5" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="9">
-        <v>12345678</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="121.5">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{DE2FAC8A-645A-4EBF-AD3F-C12956E2D53E}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{285975CA-2AC4-4774-B193-F0FC1A37F220}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -928,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62F59BE-A34D-4548-9D53-1EA54898A550}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -952,39 +966,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="11" t="s">
-        <v>35</v>
+      <c r="A2" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
@@ -992,200 +1006,200 @@
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="H2" s="7" t="s">
         <v>42</v>
       </c>
+      <c r="I2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="11" t="s">
-        <v>43</v>
+      <c r="A3" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="F6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="11" t="s">
-        <v>59</v>
+      <c r="A7" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="13" t="s">
+      <c r="I7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="J7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="E8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
